--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF24398-8BF9-D941-BDA2-13AB7D2BCC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F15AE0-6F84-8145-9897-BEC13EF0F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="MESSAGESTREAM" sheetId="3" r:id="rId3"/>
     <sheet name="MESSAGETOPIC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -90,9 +90,6 @@
     <t>NHANES-2017-2018-DEMO_J</t>
   </si>
   <si>
-    <t>hhear-kb:DPL-generic-questionnaire</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -127,13 +124,19 @@
   </si>
   <si>
     <t>NHANES-2017-2018-RXQ_RX_J-E</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DSQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DMQ_J-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -150,6 +153,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -195,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -208,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1488,22 +1498,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1526,101 +1533,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1653,22 +1636,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -1792,10 +1775,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F15AE0-6F84-8145-9897-BEC13EF0F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F52DB39-7741-814C-BB7E-04F2E1FC7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="MESSAGESTREAM" sheetId="3" r:id="rId3"/>
     <sheet name="MESSAGETOPIC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -114,9 +114,6 @@
     <t>topic</t>
   </si>
   <si>
-    <t>oliveh@rpi.edu</t>
-  </si>
-  <si>
     <t>NHANES-2017-2018-RXQ_RX_J-P</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-DMQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>example@example.com</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1541,11 +1543,11 @@
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
@@ -1553,17 +1555,17 @@
     </row>
     <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -1571,17 +1573,17 @@
     </row>
     <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -1589,17 +1591,17 @@
     </row>
     <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -1608,9 +1610,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{7F99FE12-C229-5A42-8578-F1A617FBF55B}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{F61F8347-E691-B04D-945A-E737FC76CC99}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{89CF66BA-5C8F-7740-AE9A-6D11509861CC}"/>
+    <hyperlink ref="E3:E5" r:id="rId2" display="example@example.com" xr:uid="{B553045A-7EE8-EC40-84DB-20EDEC23CC3F}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F52DB39-7741-814C-BB7E-04F2E1FC7430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4996B323-E9E5-4943-8ED6-BA8648C224BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -114,22 +114,19 @@
     <t>topic</t>
   </si>
   <si>
+    <t>nhanes-kb:DPL-DSQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DMQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>example@example.com</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-RXQ_RX_J-T</t>
+  </si>
+  <si>
     <t>NHANES-2017-2018-RXQ_RX_J-P</t>
-  </si>
-  <si>
-    <t>NHANES-2017-2018-RXQ_RX_J-T</t>
-  </si>
-  <si>
-    <t>NHANES-2017-2018-RXQ_RX_J-E</t>
-  </si>
-  <si>
-    <t>nhanes-kb:DPL-DSQ_J-QUESTIONNAIRE</t>
-  </si>
-  <si>
-    <t>nhanes-kb:DPL-DMQ_J-QUESTIONNAIRE</t>
-  </si>
-  <si>
-    <t>example@example.com</t>
   </si>
 </sst>
 </file>
@@ -1498,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1543,74 +1540,57 @@
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3:E5" r:id="rId2" display="example@example.com" xr:uid="{B553045A-7EE8-EC40-84DB-20EDEC23CC3F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4996B323-E9E5-4943-8ED6-BA8648C224BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C70522-BDFA-8544-AD87-D5D421CA7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>NHANES-2017-2018-RXQ_RX_J-P</t>
+  </si>
+  <si>
+    <t>NHANES-DEMO</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1501,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1537,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>27</v>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C70522-BDFA-8544-AD87-D5D421CA7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F117B787-03B9-6D4F-B070-897EEE0DC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>NHANES-DEMO</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-HIQ_J</t>
+  </si>
+  <si>
+    <t>NHANES-HIQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-HIQ_J-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1498,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1589,11 +1598,30 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B047EE7D-3A98-3546-BCE4-13D107937170}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F117B787-03B9-6D4F-B070-897EEE0DC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F859D-E29D-2245-ABB2-25B7BF297741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -139,13 +139,31 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-HIQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-TCHOL_J</t>
+  </si>
+  <si>
+    <t>NHANES-TCHOL</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-6000-ANALYZER</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-GLU_J</t>
+  </si>
+  <si>
+    <t>NHANES-GLU</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-C-ANALYZER-C311</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -167,6 +185,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -213,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -227,6 +251,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1507,17 +1532,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1616,12 +1641,50 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{B047EE7D-3A98-3546-BCE4-13D107937170}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{809F3561-BA15-7B47-8F3B-21921DB80D79}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F859D-E29D-2245-ABB2-25B7BF297741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385BD78-0498-294A-B288-BE6CF0A20C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-C-ANALYZER-C311</t>
+  </si>
+  <si>
+    <t>NHANES-DIQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DIQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-DIQ_J</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1569,15 +1578,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
@@ -1587,15 +1596,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
@@ -1607,10 +1616,10 @@
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>26</v>
@@ -1625,13 +1634,13 @@
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
@@ -1643,13 +1652,13 @@
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
@@ -1661,13 +1670,13 @@
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
@@ -1677,14 +1686,33 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{B047EE7D-3A98-3546-BCE4-13D107937170}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{809F3561-BA15-7B47-8F3B-21921DB80D79}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{B047EE7D-3A98-3546-BCE4-13D107937170}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{809F3561-BA15-7B47-8F3B-21921DB80D79}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{7B09C5B9-DE8F-3342-BA2F-F16934021AD7}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385BD78-0498-294A-B288-BE6CF0A20C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72ACC6A-8357-9945-A9DE-2EDCA774EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>NHANES-2017-2018-DIQ_J</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-GHB_J</t>
+  </si>
+  <si>
+    <t>NHANES-GHB</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-TOSOH-G8-GLYCOHEMOGLOBIN-ANALYZER</t>
   </si>
 </sst>
 </file>
@@ -1541,17 +1550,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="48" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1704,6 +1713,24 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -1713,6 +1740,7 @@
     <hyperlink ref="E7" r:id="rId5" xr:uid="{809F3561-BA15-7B47-8F3B-21921DB80D79}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{7B09C5B9-DE8F-3342-BA2F-F16934021AD7}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72ACC6A-8357-9945-A9DE-2EDCA774EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2A03D-3FD0-C94D-9CAE-F82D25A37C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -144,18 +144,12 @@
     <t>NHANES-2017-2018-TCHOL_J</t>
   </si>
   <si>
-    <t>NHANES-TCHOL</t>
-  </si>
-  <si>
     <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-6000-ANALYZER</t>
   </si>
   <si>
     <t>NHANES-2017-2018-GLU_J</t>
   </si>
   <si>
-    <t>NHANES-GLU</t>
-  </si>
-  <si>
     <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-C-ANALYZER-C311</t>
   </si>
   <si>
@@ -171,10 +165,10 @@
     <t>NHANES-2017-2018-GHB_J</t>
   </si>
   <si>
-    <t>NHANES-GHB</t>
-  </si>
-  <si>
     <t>nhanes-kb:DPL-TOSOH-G8-GLYCOHEMOGLOBIN-ANALYZER</t>
+  </si>
+  <si>
+    <t>NHANES-LAB-RESULTS</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1547,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1589,13 +1583,13 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
@@ -1682,10 +1676,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
@@ -1697,13 +1691,13 @@
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
@@ -1715,13 +1709,13 @@
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2A03D-3FD0-C94D-9CAE-F82D25A37C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BD410-F942-BB46-B229-0D1F32018A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>NHANES-LAB-RESULTS</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-T</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-P</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1553,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1622,7 +1628,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>26</v>
@@ -1640,7 +1646,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>26</v>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BD410-F942-BB46-B229-0D1F32018A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF127485-A9C6-0642-962F-0F7350585896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>NHANES-RXQ_RX-P</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-ICON-25-HCG-URINE-SERUM-TEST-KIT</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-UCPREG_J</t>
   </si>
 </sst>
 </file>
@@ -1550,17 +1556,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1728,6 +1734,24 @@
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1741,6 +1765,7 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{7B09C5B9-DE8F-3342-BA2F-F16934021AD7}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{81744298-4E10-2149-B602-918B812C29C7}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF127485-A9C6-0642-962F-0F7350585896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEDED5-CEB7-D149-94AA-113453D34FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>NHANES-2017-2018-UCPREG_J</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-BPQ_J</t>
+  </si>
+  <si>
+    <t>NHANES-BPQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BPQ_J-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1595,13 +1604,13 @@
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="8" t="s">
@@ -1611,15 +1620,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8" t="s">
@@ -1629,15 +1638,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>29</v>
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
@@ -1649,10 +1658,10 @@
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>26</v>
@@ -1667,13 +1676,13 @@
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="8" t="s">
@@ -1685,13 +1694,13 @@
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
@@ -1703,13 +1712,13 @@
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
@@ -1721,13 +1730,13 @@
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>43</v>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
@@ -1739,13 +1748,13 @@
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
@@ -1755,17 +1764,36 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{B047EE7D-3A98-3546-BCE4-13D107937170}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{809F3561-BA15-7B47-8F3B-21921DB80D79}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{7B09C5B9-DE8F-3342-BA2F-F16934021AD7}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{81744298-4E10-2149-B602-918B812C29C7}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{CA9EDFFF-9119-1F49-9CE7-5645C8131703}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{6D46E41A-4038-984A-9D5B-871B0E33439C}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{B047EE7D-3A98-3546-BCE4-13D107937170}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{809F3561-BA15-7B47-8F3B-21921DB80D79}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{873AD8E1-2810-5B49-AAC7-F443E7C4DB3E}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{7B09C5B9-DE8F-3342-BA2F-F16934021AD7}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{81744298-4E10-2149-B602-918B812C29C7}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{13602335-6E93-7440-816B-D8EE1C6B2875}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEDED5-CEB7-D149-94AA-113453D34FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A353BE-A231-7147-985F-5B95FD87D25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-BPQ_J-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-BPX</t>
+  </si>
+  <si>
+    <t>NHANES-BMX</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-BPX_J</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-BMX_J</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-INFANTOMETER-STADIOMETER</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-STEEL-MEASURING-TAPE</t>
   </si>
 </sst>
 </file>
@@ -270,21 +288,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1565,21 +1580,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1602,36 +1617,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1642,143 +1657,179 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1794,6 +1845,8 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{81744298-4E10-2149-B602-918B812C29C7}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{13602335-6E93-7440-816B-D8EE1C6B2875}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{B229C238-183B-844E-83C5-7E98F562A0C6}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{4C19B626-B558-854C-A41C-2151C4F24F34}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
@@ -1812,9 +1865,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1951,9 +2004,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A353BE-A231-7147-985F-5B95FD87D25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F71640-0F6C-A54B-99C9-E935D855D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-STEEL-MEASURING-TAPE</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-BIOPRO_J</t>
   </si>
 </sst>
 </file>
@@ -1580,9 +1583,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1799,13 +1802,13 @@
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
@@ -1817,19 +1820,37 @@
     </row>
     <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1845,8 +1866,9 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{81744298-4E10-2149-B602-918B812C29C7}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{13602335-6E93-7440-816B-D8EE1C6B2875}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{B229C238-183B-844E-83C5-7E98F562A0C6}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{4C19B626-B558-854C-A41C-2151C4F24F34}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{B229C238-183B-844E-83C5-7E98F562A0C6}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{4C19B626-B558-854C-A41C-2151C4F24F34}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{628A8A44-05F8-D344-8CBA-EC4260C00DF5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2017-2018.xlsx
+++ b/metadata/STR-NHANES-2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F71640-0F6C-A54B-99C9-E935D855D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D8E646-1EAD-004C-AB98-D300C8E88878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>NHANES-2017-2018-BIOPRO_J</t>
+  </si>
+  <si>
+    <t>NHANES-2017-2018-TRIGLY_J</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1820,13 +1823,13 @@
     </row>
     <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
@@ -1838,19 +1841,37 @@
     </row>
     <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1866,9 +1887,10 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{4BA4D1C3-9412-4F45-804A-2D844384C231}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{81744298-4E10-2149-B602-918B812C29C7}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{13602335-6E93-7440-816B-D8EE1C6B2875}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{B229C238-183B-844E-83C5-7E98F562A0C6}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{4C19B626-B558-854C-A41C-2151C4F24F34}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{B229C238-183B-844E-83C5-7E98F562A0C6}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{4C19B626-B558-854C-A41C-2151C4F24F34}"/>
     <hyperlink ref="E12" r:id="rId13" xr:uid="{628A8A44-05F8-D344-8CBA-EC4260C00DF5}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{6A655395-C2DC-F64F-8076-8AC8B054D632}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
